--- a/Backend/app/temp/facture_cdm.xlsx
+++ b/Backend/app/temp/facture_cdm.xlsx
@@ -1118,13 +1118,13 @@
           <t>36000</t>
         </is>
       </c>
-      <c r="G14" s="65" t="n">
+      <c r="G14" s="65" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="H14" s="65" t="n">
         <v>900000</v>
-      </c>
-      <c r="H14" s="65" t="inlineStr">
-        <is>
-          <t>Mai</t>
-        </is>
       </c>
       <c r="I14" s="65" t="n">
         <v>9000</v>
